--- a/app/assets/excelsheets/Sidekick_Character_Sheet.xlsx
+++ b/app/assets/excelsheets/Sidekick_Character_Sheet.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName localSheetId="3" name="Paladin5">Guardian!$C$50:$F$50</definedName>
     <definedName localSheetId="3" name="Paladin3">Guardian!$C$44:$F$44</definedName>
+    <definedName localSheetId="3" name="Paladin8">Guardian!$C$68:$F$68</definedName>
     <definedName localSheetId="3" name="Paladin2">Guardian!$C$41:$F$41</definedName>
-    <definedName localSheetId="3" name="Paladin8">Guardian!$C$68:$F$68</definedName>
+    <definedName localSheetId="3" name="Paladin1">Guardian!$C$38:$F$38</definedName>
     <definedName localSheetId="3" name="Paladin6">Guardian!$C$56:$F$56</definedName>
     <definedName localSheetId="3" name="Paladin9">Guardian!$C$77:$F$77</definedName>
-    <definedName localSheetId="3" name="Paladin1">Guardian!$C$38:$F$38</definedName>
+    <definedName localSheetId="3" name="Paladin7">Guardian!$C$62:$F$62</definedName>
     <definedName localSheetId="1" name="BaRa1">'Battle Rager'!$A$36:$F$37</definedName>
-    <definedName localSheetId="3" name="Paladin7">Guardian!$C$62:$F$62</definedName>
     <definedName localSheetId="3" name="Paladin4">Guardian!$C$47:$F$47</definedName>
   </definedNames>
   <calcPr/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="403">
   <si>
     <t>Healer</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>When you would normally roll one or more dice to restore hit points with a spell, you instead use the highest number possible for each die. For example, instead of restoring 2d6 hit points to a creature, you restore 12.</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>(18th)</t>
@@ -917,6 +914,9 @@
   <si>
     <t>Choose a 1st-level wizard spell and a 2nd-level wizard spell that are in your spellbook. You can cast those spells at their lowest level without expending spell points when you have them prepared. If you want to cast either spell at a higher level, you must expend spell points as normal.
 By spending 8 hours in study, you can exchange one or both of the spells you chose for different spells of the same levels.</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
   <si>
     <t>Choose two 3rd-level wizard spells in your spellbook as your signature spells. You always have these spells prepared, they don't count against the number of spells you have prepared, and you can cast each of them once at 3rd level without expending spell points. When you do so, you can't do so again until you finish a short or long rest.
@@ -3706,13 +3706,11 @@
       <c r="H85" s="33"/>
     </row>
     <row r="86">
-      <c r="C86" s="38" t="s">
-        <v>97</v>
-      </c>
+      <c r="C86" s="38"/>
     </row>
     <row r="87">
       <c r="B87" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>47</v>
@@ -3726,7 +3724,7 @@
     <row r="88">
       <c r="B88" s="32"/>
       <c r="C88" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
@@ -3736,7 +3734,7 @@
     </row>
     <row r="90">
       <c r="B90" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>81</v>
@@ -3753,7 +3751,7 @@
     </row>
     <row r="93">
       <c r="B93" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>50</v>
@@ -3767,7 +3765,7 @@
     <row r="94">
       <c r="B94" s="32"/>
       <c r="C94" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4007,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="16">
         <v>4.0</v>
@@ -4400,7 +4398,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -4414,7 +4412,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -4464,7 +4462,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -4661,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4673,7 +4671,7 @@
       <c r="A57" s="57"/>
       <c r="B57" s="32"/>
       <c r="C57" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="57"/>
@@ -4870,7 +4868,7 @@
     <row r="80">
       <c r="A80" s="57"/>
       <c r="B80" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>322</v>
@@ -4897,7 +4895,7 @@
     <row r="83">
       <c r="A83" s="57"/>
       <c r="B83" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>323</v>
@@ -4949,7 +4947,7 @@
     <row r="89">
       <c r="A89" s="57"/>
       <c r="B89" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>324</v>
@@ -4976,7 +4974,7 @@
     <row r="92">
       <c r="A92" s="57"/>
       <c r="B92" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>81</v>
@@ -5001,7 +4999,7 @@
     <row r="95">
       <c r="A95" s="57"/>
       <c r="B95" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>325</v>
@@ -8852,7 +8850,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="77"/>
@@ -9066,7 +9064,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -9077,7 +9075,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -9104,7 +9102,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -9115,7 +9113,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -9137,7 +9135,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -9225,7 +9223,7 @@
         <v>82</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -9234,7 +9232,7 @@
     <row r="49">
       <c r="B49" s="32"/>
       <c r="C49" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -9271,7 +9269,7 @@
     </row>
     <row r="57">
       <c r="B57" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>346</v>
@@ -9352,7 +9350,7 @@
     </row>
     <row r="72">
       <c r="B72" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>349</v>
@@ -9369,7 +9367,7 @@
     </row>
     <row r="75">
       <c r="B75" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>81</v>
@@ -9384,7 +9382,7 @@
     </row>
     <row r="78">
       <c r="B78" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>350</v>
@@ -9444,6 +9442,7 @@
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10136,7 +10135,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -10591,7 +10590,7 @@
     </row>
     <row r="91">
       <c r="B91" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>369</v>
@@ -10631,7 +10630,7 @@
     </row>
     <row r="97">
       <c r="B97" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>216</v>
@@ -10656,7 +10655,7 @@
     </row>
     <row r="100">
       <c r="B100" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>370</v>
@@ -10681,7 +10680,7 @@
     </row>
     <row r="103">
       <c r="B103" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>81</v>
@@ -10699,7 +10698,7 @@
     </row>
     <row r="106">
       <c r="B106" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>371</v>
@@ -10817,6 +10816,9 @@
     <mergeCell ref="C91:I91"/>
     <mergeCell ref="C92:G92"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -10844,7 +10846,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10856,16 +10858,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
@@ -10876,7 +10878,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="8">
         <v>1.0</v>
@@ -10890,7 +10892,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -10901,7 +10903,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="12">
         <v>1.0</v>
@@ -10952,7 +10954,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="16">
         <v>2.0</v>
@@ -10988,7 +10990,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="16">
         <v>3.0</v>
@@ -11024,7 +11026,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="16">
         <v>3.0</v>
@@ -11060,7 +11062,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="16">
         <v>3.0</v>
@@ -11096,7 +11098,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="16">
         <v>4.0</v>
@@ -11132,7 +11134,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="16">
         <v>4.0</v>
@@ -11168,7 +11170,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="16">
         <v>5.0</v>
@@ -11186,7 +11188,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12">
         <v>5.0</v>
@@ -11222,10 +11224,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="3"/>
@@ -11246,7 +11248,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -11257,7 +11259,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -11295,7 +11297,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -11317,7 +11319,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -11328,7 +11330,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -11339,7 +11341,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -11348,7 +11350,7 @@
     <row r="37">
       <c r="B37" s="32"/>
       <c r="C37" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -11356,7 +11358,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -11365,7 +11367,7 @@
     <row r="40">
       <c r="B40" s="32"/>
       <c r="C40" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -11373,7 +11375,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -11382,7 +11384,7 @@
     <row r="43">
       <c r="B43" s="32"/>
       <c r="C43" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -11405,7 +11407,7 @@
         <v>82</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -11414,15 +11416,15 @@
     <row r="49">
       <c r="B49" s="32"/>
       <c r="C49" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -11431,7 +11433,7 @@
     <row r="52">
       <c r="B52" s="32"/>
       <c r="C52" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -11454,7 +11456,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -11463,15 +11465,15 @@
     <row r="58">
       <c r="B58" s="32"/>
       <c r="C58" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -11480,7 +11482,7 @@
     <row r="61">
       <c r="B61" s="32"/>
       <c r="C61" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -11503,7 +11505,7 @@
         <v>92</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11512,15 +11514,15 @@
     <row r="67">
       <c r="B67" s="32"/>
       <c r="C67" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11529,7 +11531,7 @@
     <row r="70">
       <c r="B70" s="32"/>
       <c r="C70" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -11552,7 +11554,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11561,15 +11563,15 @@
     <row r="76">
       <c r="B76" s="32"/>
       <c r="C76" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11578,12 +11580,12 @@
     <row r="79">
       <c r="B79" s="32"/>
       <c r="C79" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>81</v>
@@ -11598,10 +11600,10 @@
     </row>
     <row r="84">
       <c r="B84" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -11610,7 +11612,7 @@
     <row r="85">
       <c r="B85" s="32"/>
       <c r="C85" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -11685,7 +11687,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11700,25 +11702,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -11730,7 +11732,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="16">
         <v>2.0</v>
@@ -11757,7 +11759,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="12">
         <v>2.0</v>
@@ -11865,7 +11867,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="12">
         <v>3.0</v>
@@ -11973,7 +11975,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="12">
         <v>4.0</v>
@@ -12081,7 +12083,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="12">
         <v>4.0</v>
@@ -12243,7 +12245,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="12">
         <v>4.0</v>
@@ -12328,7 +12330,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -12384,7 +12386,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -12398,7 +12400,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -12410,7 +12412,7 @@
     <row r="36">
       <c r="B36" s="32"/>
       <c r="C36" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -12420,7 +12422,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -12432,7 +12434,7 @@
     <row r="39">
       <c r="B39" s="32"/>
       <c r="C39" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -12460,7 +12462,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -12472,7 +12474,7 @@
     <row r="45">
       <c r="B45" s="32"/>
       <c r="C45" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
@@ -12500,7 +12502,7 @@
         <v>89</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -12512,7 +12514,7 @@
     <row r="51">
       <c r="B51" s="32"/>
       <c r="C51" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -12537,10 +12539,10 @@
     </row>
     <row r="56">
       <c r="B56" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>161</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -12552,7 +12554,7 @@
     <row r="57">
       <c r="B57" s="32"/>
       <c r="C57" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59">
@@ -12575,7 +12577,7 @@
     </row>
     <row r="62">
       <c r="B62" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>81</v>
@@ -12593,10 +12595,10 @@
     </row>
     <row r="65">
       <c r="B65" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -12608,7 +12610,7 @@
     <row r="66">
       <c r="B66" s="32"/>
       <c r="C66" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
@@ -12671,7 +12673,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -12723,7 +12725,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>20</v>
@@ -12743,7 +12745,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="12">
         <v>2.0</v>
@@ -12760,7 +12762,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
@@ -12779,7 +12781,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="16">
         <v>3.0</v>
@@ -12819,7 +12821,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="16">
         <v>4.0</v>
@@ -12939,7 +12941,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="16">
         <v>7.0</v>
@@ -12999,7 +13001,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="12">
         <v>8.0</v>
@@ -13119,7 +13121,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="12">
         <v>11.0</v>
@@ -13146,7 +13148,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -13158,7 +13160,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -13188,7 +13190,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -13200,7 +13202,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -13236,7 +13238,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -13248,7 +13250,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -13258,7 +13260,7 @@
     <row r="39">
       <c r="B39" s="32"/>
       <c r="C39" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="32"/>
     </row>
@@ -13267,7 +13269,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -13277,7 +13279,7 @@
     <row r="42">
       <c r="B42" s="32"/>
       <c r="C42" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G42" s="32"/>
     </row>
@@ -13286,7 +13288,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -13296,7 +13298,7 @@
     <row r="45">
       <c r="B45" s="32"/>
       <c r="C45" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G45" s="32"/>
     </row>
@@ -13315,16 +13317,16 @@
     <row r="48">
       <c r="B48" s="32"/>
       <c r="C48" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="32"/>
     </row>
     <row r="50">
       <c r="B50" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -13334,7 +13336,7 @@
     <row r="51">
       <c r="B51" s="32"/>
       <c r="C51" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" s="32"/>
     </row>
@@ -13360,7 +13362,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -13370,7 +13372,7 @@
     <row r="57">
       <c r="B57" s="32"/>
       <c r="C57" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="32"/>
     </row>
@@ -13393,10 +13395,10 @@
     </row>
     <row r="62">
       <c r="B62" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -13406,7 +13408,7 @@
     <row r="63">
       <c r="B63" s="32"/>
       <c r="C63" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G63" s="32"/>
     </row>
@@ -13429,10 +13431,10 @@
     </row>
     <row r="68">
       <c r="B68" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -13442,7 +13444,7 @@
     <row r="69">
       <c r="B69" s="32"/>
       <c r="C69" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G69" s="32"/>
     </row>
@@ -13465,7 +13467,7 @@
     </row>
     <row r="74">
       <c r="B74" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>81</v>
@@ -13482,10 +13484,10 @@
     </row>
     <row r="77">
       <c r="B77" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -13495,7 +13497,7 @@
     <row r="78">
       <c r="B78" s="32"/>
       <c r="C78" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G78" s="32"/>
     </row>
@@ -13566,7 +13568,7 @@
     <row r="1">
       <c r="A1" s="57"/>
       <c r="B1" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -13632,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="8">
         <v>3.0</v>
@@ -13776,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="12">
         <v>4.0</v>
@@ -13992,7 +13994,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="12">
         <v>5.0</v>
@@ -14100,7 +14102,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="12">
         <v>5.0</v>
@@ -14154,7 +14156,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="12">
         <v>5.0</v>
@@ -14189,7 +14191,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -14204,7 +14206,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -14258,7 +14260,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -14288,7 +14290,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -14303,7 +14305,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -14326,7 +14328,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -14339,7 +14341,7 @@
       <c r="A38" s="57"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
@@ -14368,7 +14370,7 @@
       <c r="A41" s="57"/>
       <c r="B41" s="32"/>
       <c r="C41" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -14411,7 +14413,7 @@
         <v>84</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -14424,7 +14426,7 @@
       <c r="A47" s="57"/>
       <c r="B47" s="32"/>
       <c r="C47" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
@@ -14491,10 +14493,10 @@
     <row r="55">
       <c r="A55" s="57"/>
       <c r="B55" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -14507,7 +14509,7 @@
       <c r="A56" s="57"/>
       <c r="B56" s="32"/>
       <c r="C56" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
@@ -14547,10 +14549,10 @@
     <row r="61">
       <c r="A61" s="57"/>
       <c r="B61" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -14563,7 +14565,7 @@
       <c r="A62" s="57"/>
       <c r="B62" s="32"/>
       <c r="C62" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
@@ -14572,14 +14574,14 @@
     <row r="63">
       <c r="A63" s="57"/>
       <c r="C63" s="38" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="I63" s="57"/>
     </row>
     <row r="64">
       <c r="A64" s="57"/>
       <c r="B64" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>81</v>
@@ -14606,10 +14608,10 @@
     <row r="67">
       <c r="A67" s="57"/>
       <c r="B67" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -18384,7 +18386,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -18454,10 +18456,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="18">
         <v>5.0</v>
@@ -18474,7 +18476,7 @@
         <v>210</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="15">
         <v>6.0</v>
@@ -18491,7 +18493,7 @@
         <v>211</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="16">
         <v>7.0</v>
@@ -18516,7 +18518,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="15">
         <v>8.0</v>
@@ -18533,7 +18535,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" s="18">
         <v>9.0</v>
@@ -18550,7 +18552,7 @@
         <v>213</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="15">
         <v>10.0</v>
@@ -18669,7 +18671,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F22" s="18">
         <v>17.0</v>
@@ -18686,7 +18688,7 @@
         <v>217</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="15">
         <v>18.0</v>
@@ -18703,7 +18705,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="18">
         <v>19.0</v>
@@ -18720,7 +18722,7 @@
         <v>218</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="15">
         <v>20.0</v>
@@ -18740,7 +18742,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -18751,7 +18753,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -18850,7 +18852,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -18916,7 +18918,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -18925,7 +18927,7 @@
     <row r="54">
       <c r="B54" s="32"/>
       <c r="C54" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -18947,7 +18949,7 @@
     </row>
     <row r="59">
       <c r="B59" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>211</v>
@@ -18964,7 +18966,7 @@
     </row>
     <row r="62">
       <c r="B62" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>212</v>
@@ -19045,7 +19047,7 @@
     </row>
     <row r="77">
       <c r="B77" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>215</v>
@@ -19062,7 +19064,7 @@
     </row>
     <row r="80">
       <c r="B80" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>216</v>
@@ -19094,7 +19096,7 @@
     </row>
     <row r="86">
       <c r="B86" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>217</v>
@@ -19111,7 +19113,7 @@
     </row>
     <row r="89">
       <c r="B89" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>81</v>
@@ -19126,7 +19128,7 @@
     </row>
     <row r="92">
       <c r="B92" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>218</v>
@@ -19827,7 +19829,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -20121,7 +20123,7 @@
     </row>
     <row r="74">
       <c r="B74" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>246</v>
@@ -20176,12 +20178,12 @@
     </row>
     <row r="82">
       <c r="C82" s="38" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>81</v>
@@ -20198,7 +20200,7 @@
     </row>
     <row r="86">
       <c r="B86" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>248</v>
@@ -20673,7 +20675,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -20825,7 +20827,7 @@
     </row>
     <row r="54">
       <c r="B54" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>211</v>
@@ -20857,7 +20859,7 @@
     </row>
     <row r="60">
       <c r="B60" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>277</v>
@@ -20889,7 +20891,7 @@
     </row>
     <row r="66">
       <c r="B66" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>280</v>
@@ -20906,7 +20908,7 @@
     </row>
     <row r="69">
       <c r="B69" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>281</v>
@@ -20938,7 +20940,7 @@
     </row>
     <row r="75">
       <c r="B75" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>284</v>
@@ -20955,7 +20957,7 @@
     </row>
     <row r="78">
       <c r="B78" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>81</v>
@@ -20970,7 +20972,7 @@
     </row>
     <row r="81">
       <c r="B81" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>286</v>
@@ -21612,7 +21614,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -21626,7 +21628,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -21676,7 +21678,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -21787,7 +21789,7 @@
     </row>
     <row r="43">
       <c r="B43" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>303</v>
@@ -21950,13 +21952,13 @@
     </row>
     <row r="63">
       <c r="C63" s="38" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="I63" s="57"/>
     </row>
     <row r="64">
       <c r="B64" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>81</v>
@@ -21978,7 +21980,7 @@
     </row>
     <row r="67">
       <c r="B67" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>304</v>
